--- a/DB/objects.xlsx
+++ b/DB/objects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanpd1.HOANPD1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source Code\Caka-ICT\Java\Caka-ICT_Java_Library\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="15240" windowHeight="7200"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="objects" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>object_id</t>
   </si>
@@ -343,30 +343,71 @@
   </si>
   <si>
     <t>hstTmpWarningNew.html</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,14 +415,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,25 +855,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -790,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -825,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -860,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -895,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -924,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -953,7 +1146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -988,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1023,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1058,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1093,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1128,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1163,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1192,7 +1385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1221,7 +1414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>46</v>
       </c>
@@ -1256,7 +1449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>49</v>
       </c>
@@ -1288,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1323,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>52</v>
       </c>
@@ -1358,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>53</v>
       </c>
@@ -1393,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>54</v>
       </c>
@@ -1425,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>55</v>
       </c>
@@ -1460,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -1495,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>58</v>
       </c>
@@ -1530,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>60</v>
       </c>
@@ -1559,7 +1752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>61</v>
       </c>
@@ -1594,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>62</v>
       </c>
@@ -1629,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>63</v>
       </c>
@@ -1664,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>64</v>
       </c>
@@ -1706,12 +1899,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>